--- a/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
+++ b/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501039</t>
+          <t>290011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富睿丰混合（LOF）A</t>
+          <t>泰信中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.70</t>
+          <t>14.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9492</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501040</t>
+          <t>001816</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富睿丰混合（LOF）C</t>
+          <t>汇添富新睿精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.70</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.32</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.43</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2682</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>290011</t>
+          <t>001541</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信中小盘精选混合</t>
+          <t>汇添富民营新动力股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001541</t>
+          <t>002164</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富民营新动力股票</t>
+          <t>汇添富新睿精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.56</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001816</t>
+          <t>001970</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富新睿精选灵活配置混合A</t>
+          <t>泰信鑫选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29.88</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001970</t>
+          <t>007872</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合A</t>
+          <t>金信稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002164</t>
+          <t>002863</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富新睿精选灵活配置混合C</t>
+          <t>金信深圳成长灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29.88</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002580</t>
+          <t>501039</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合C</t>
+          <t>汇添富睿丰混合（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002863</t>
+          <t>501040</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金信深圳成长灵活配置混合</t>
+          <t>汇添富睿丰混合（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007872</t>
+          <t>009317</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金信稳健策略灵活配置混合</t>
+          <t>金信核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009317</t>
+          <t>002580</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金信核心竞争力灵活配置混合</t>
+          <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>83.91</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +982,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -884,15 +1022,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.58</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.49</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9838</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -902,26 +1050,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007872</t>
+          <t>290011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金信稳健策略灵活配置混合</t>
+          <t>泰信中小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8815</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -930,25 +1088,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006081</t>
+          <t>001541</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海富通电子信息传媒产业股票A</t>
+          <t>汇添富民营新动力股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -958,25 +1126,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006080</t>
+          <t>007872</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通电子信息传媒产业股票C</t>
+          <t>金信稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -986,26 +1164,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>290011</t>
+          <t>001970</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰信中小盘精选混合</t>
+          <t>泰信鑫选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1014,25 +1202,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001541</t>
+          <t>006081</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富民营新动力股票</t>
+          <t>海富通电子信息传媒产业股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1042,26 +1240,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001970</t>
+          <t>200001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合A</t>
+          <t>长城久恒灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1070,26 +1278,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002580</t>
+          <t>002863</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合C</t>
+          <t>金信深圳成长灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002292</t>
+          <t>006080</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安益鑫灵活配置混合</t>
+          <t>海富通电子信息传媒产业股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>64.57</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>200001</t>
+          <t>002292</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长城久恒灵活配置混合</t>
+          <t>诺安益鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1154,26 +1392,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002863</t>
+          <t>002580</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金信深圳成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
+++ b/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,6 @@
           <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>92.64</t>
@@ -1416,6 +1416,404 @@
       </c>
       <c r="H12" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2411</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
+++ b/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1819,4 +1820,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
+++ b/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2370,4 +2371,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
+++ b/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2379,7 +2380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2390,17 +2391,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2410,14 +2431,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3416</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2426,14 +2469,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.95</v>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0840</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2442,14 +2507,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.11</v>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6958</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2458,13 +2545,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4611</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
+++ b/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3234,7 +3235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3245,17 +3246,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3265,14 +3286,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.44</v>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3281,14 +3324,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0601</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3297,14 +3362,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.95</v>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1220</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3313,14 +3400,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.11</v>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8935</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3329,13 +3438,1873 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5853</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5659</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5382</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4507</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3554</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2367</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>52.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>52.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
+++ b/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5187,7 +5188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5198,17 +5199,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5218,14 +5239,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.4</v>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4656</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5234,14 +5277,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.44</v>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0351</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5250,14 +5315,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5600000000000001</v>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8088</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5266,14 +5353,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.95</v>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3926</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5282,14 +5391,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.11</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>64.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8510</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -5298,13 +5429,1511 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2931</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1828</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8980</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4918</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4842</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3538</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3342</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2414</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>48.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012181</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012772</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>48.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014454</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银双息回报混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
+++ b/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>20.59</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>12.4</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>8.44</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5600000000000001</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>1.95</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.83</v>
       </c>
     </row>
@@ -600,6 +617,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8387</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7469</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7466</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6544</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4732</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011805</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3119</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013755</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013756</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011806</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013733</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013734</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2211,7 +3082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4163,7 +5034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5017,7 +5888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5567,7 +6438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5965,7 +6836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6432,7 +7303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
+++ b/数据整理/stocks/A股/上证主板/605111-新洁能.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>6.98</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>20.59</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>12.4</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>8.44</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5600000000000001</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>1.95</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.83</v>
       </c>
     </row>
@@ -616,7 +633,913 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9492</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2682</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6833</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011806</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1470,7 +2393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3082,7 +4005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5034,7 +5957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5888,7 +6811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6438,7 +7361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6836,7 +7759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7301,514 +8224,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>290011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9492</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001816</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富新睿精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>29.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2811</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001726</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富新兴消费股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2682</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001541</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富民营新动力股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1309</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002164</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富新睿精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>29.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0816</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0491</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007872</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>金信稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0294</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002863</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金信深圳成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0235</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501039</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富睿丰混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>29.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>501040</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富睿丰混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>29.70</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009317</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>金信核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.91</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>